--- a/outputs/d__Bacteria_include_p__Bacteroidota.xlsx
+++ b/outputs/d__Bacteria_include_p__Bacteroidota.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="g__Prevotella-t" sheetId="1" state="visible" r:id="rId1"/>
@@ -63,18 +63,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3905,7 +3905,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -3915,7 +3915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3959,6 +3959,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3989,6 +3994,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -4019,6 +4029,11 @@
           <t>p__Actinobacteriota</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -4049,6 +4064,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -4079,6 +4099,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4109,6 +4134,11 @@
           <t>p__Actinobacteriota</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4139,6 +4169,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4169,6 +4204,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4199,6 +4239,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4229,6 +4274,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4259,6 +4309,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -4289,6 +4344,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -4319,6 +4379,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4349,6 +4414,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -4379,6 +4449,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4409,6 +4484,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4439,6 +4519,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4469,6 +4554,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -4499,6 +4589,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -4529,6 +4624,11 @@
           <t>p__Actinobacteriota</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4559,6 +4659,11 @@
           <t>p__Actinobacteriota</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4589,6 +4694,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -4619,6 +4729,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -4649,6 +4764,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -4679,6 +4799,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -4709,6 +4834,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -4739,6 +4869,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -4769,6 +4904,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -4799,6 +4939,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -4829,6 +4974,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -4859,6 +5009,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -4889,6 +5044,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -4919,6 +5079,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -4949,6 +5114,11 @@
           <t>p__Actinobacteriota</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -4979,6 +5149,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -5009,6 +5184,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -5039,6 +5219,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -5069,6 +5254,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -5099,6 +5289,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -5129,6 +5324,11 @@
           <t>p__Actinobacteriota</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -5159,6 +5359,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -5189,6 +5394,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -5219,6 +5429,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -5249,6 +5464,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -5279,6 +5499,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -5309,6 +5534,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -5339,6 +5569,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -5369,6 +5604,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -5399,6 +5639,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -5429,6 +5674,11 @@
           <t>p__Actinobacteriota</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -5459,6 +5709,11 @@
           <t>p__Actinobacteriota</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -5489,6 +5744,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -5519,6 +5779,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -5549,6 +5814,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -5579,6 +5849,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -5609,6 +5884,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -5639,6 +5919,11 @@
           <t>p__Actinobacteriota</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -5669,6 +5954,11 @@
           <t>p__Actinobacteriota</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -5699,9 +5989,14 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -7156,7 +7451,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -8152,7 +8447,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -11740,7 +12035,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -13357,7 +13652,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -13367,7 +13662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13411,6 +13706,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -13441,6 +13741,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -13471,6 +13776,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -13501,6 +13811,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -13531,6 +13846,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -13561,6 +13881,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -13591,6 +13916,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -13621,6 +13951,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -13651,6 +13986,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -13681,6 +14021,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -13711,6 +14056,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -13741,6 +14091,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -13771,6 +14126,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -13801,6 +14161,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -13831,6 +14196,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -13861,6 +14231,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -13891,6 +14266,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -13921,6 +14301,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -13951,6 +14336,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -13981,6 +14371,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -14011,6 +14406,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -14041,6 +14441,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -14071,6 +14476,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -14101,6 +14511,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -14131,6 +14546,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -14161,6 +14581,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -14191,6 +14616,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -14221,6 +14651,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -14251,6 +14686,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -14281,6 +14721,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -14311,6 +14756,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -14341,6 +14791,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -14371,6 +14826,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -14401,6 +14861,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -14431,6 +14896,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -14461,6 +14931,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -14491,6 +14966,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -14521,6 +15001,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -14551,6 +15036,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -14581,6 +15071,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -14611,6 +15106,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -14641,6 +15141,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -14671,6 +15176,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -14701,6 +15211,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -14731,6 +15246,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -14761,6 +15281,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -14791,6 +15316,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -14821,6 +15351,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -14851,6 +15386,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -14881,6 +15421,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -14911,6 +15456,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -14941,6 +15491,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -14971,6 +15526,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -15001,6 +15561,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -15031,6 +15596,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -15061,6 +15631,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -15091,6 +15666,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -15121,6 +15701,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -15151,6 +15736,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -15181,6 +15771,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -15211,6 +15806,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -15241,6 +15841,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -15271,6 +15876,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -15301,6 +15911,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -15331,6 +15946,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -15361,6 +15981,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -15391,6 +16016,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -15421,6 +16051,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -15451,6 +16086,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -15481,6 +16121,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -15511,6 +16156,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -15541,6 +16191,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -15571,6 +16226,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -15601,6 +16261,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -15631,6 +16296,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -15661,6 +16331,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -15691,6 +16366,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -15721,6 +16401,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -15751,6 +16436,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -15781,6 +16471,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -15811,6 +16506,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -15841,6 +16541,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -15871,6 +16576,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -15901,6 +16611,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -15931,6 +16646,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -15961,6 +16681,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -15991,6 +16716,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -16021,6 +16751,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -16051,6 +16786,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -16081,6 +16821,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -16111,6 +16856,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -16141,6 +16891,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -16171,6 +16926,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -16201,6 +16961,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -16231,6 +16996,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -16261,6 +17031,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -16291,6 +17066,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -16321,6 +17101,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -16351,6 +17136,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -16381,6 +17171,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -16411,6 +17206,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -16441,6 +17241,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -16471,6 +17276,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -16501,6 +17311,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -16531,6 +17346,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -16561,6 +17381,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -16591,6 +17416,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -16621,6 +17451,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -16651,6 +17486,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -16681,6 +17521,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -16711,6 +17556,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -16741,6 +17591,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -16771,6 +17626,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -16801,6 +17661,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -16831,6 +17696,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -16861,6 +17731,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -16891,6 +17766,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -16921,6 +17801,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -16951,6 +17836,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -16981,6 +17871,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -17011,6 +17906,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -17041,6 +17941,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -17071,6 +17976,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -17101,6 +18011,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -17131,6 +18046,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -17161,6 +18081,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -17191,6 +18116,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -17221,9 +18151,14 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -17233,7 +18168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17277,6 +18212,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -17307,6 +18247,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -17337,6 +18282,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -17367,6 +18317,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -17397,6 +18352,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -17427,6 +18387,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -17457,6 +18422,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -17487,6 +18457,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -17517,6 +18492,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -17547,6 +18527,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -17577,6 +18562,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -17607,6 +18597,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -17637,6 +18632,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -17667,6 +18667,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -17697,6 +18702,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -17727,6 +18737,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -17757,6 +18772,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -17787,6 +18807,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -17817,6 +18842,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -17847,6 +18877,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -17877,6 +18912,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -17907,6 +18947,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -17937,6 +18982,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -17967,6 +19017,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -17997,6 +19052,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -18027,6 +19087,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -18057,6 +19122,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -18087,6 +19157,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -18117,6 +19192,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -18147,6 +19227,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -18177,6 +19262,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -18207,6 +19297,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -18237,6 +19332,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -18267,6 +19367,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -18297,6 +19402,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -18327,6 +19437,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -18357,6 +19472,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -18387,6 +19507,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -18417,6 +19542,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -18447,6 +19577,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -18477,6 +19612,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -18507,6 +19647,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -18537,6 +19682,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -18567,6 +19717,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -18597,6 +19752,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -18627,6 +19787,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -18657,6 +19822,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -18687,6 +19857,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -18717,6 +19892,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -18747,6 +19927,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -18777,6 +19962,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -18807,6 +19997,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -18837,9 +20032,14 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -18849,7 +20049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18893,6 +20093,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -18923,6 +20128,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -18953,6 +20163,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -18983,6 +20198,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -19013,6 +20233,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -19043,6 +20268,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -19073,6 +20303,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -19103,6 +20338,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -19133,6 +20373,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -19163,6 +20408,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -19193,6 +20443,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -19223,6 +20478,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -19253,6 +20513,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -19283,6 +20548,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -19313,6 +20583,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -19343,6 +20618,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -19373,6 +20653,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -19403,6 +20688,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -19433,6 +20723,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -19463,6 +20758,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -19493,6 +20793,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -19523,6 +20828,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -19553,6 +20863,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -19583,6 +20898,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -19613,6 +20933,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -19643,6 +20968,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -19673,6 +21003,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -19703,6 +21038,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -19733,6 +21073,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -19763,6 +21108,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -19793,6 +21143,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -19823,6 +21178,11 @@
           <t>p__Actinobacteriota</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -19853,6 +21213,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -19883,6 +21248,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -19913,6 +21283,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -19943,9 +21318,14 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -19955,7 +21335,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19999,6 +21379,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -20029,6 +21414,11 @@
           <t>p__Actinobacteriota</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -20059,6 +21449,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -20089,6 +21484,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -20119,6 +21519,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -20149,6 +21554,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -20179,6 +21589,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -20209,6 +21624,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -20239,6 +21659,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -20269,6 +21694,11 @@
           <t>p__Actinobacteriota</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -20299,6 +21729,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -20329,6 +21764,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -20359,6 +21799,11 @@
           <t>p__Actinobacteriota</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -20389,6 +21834,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -20419,6 +21869,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -20449,6 +21904,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -20479,6 +21939,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -20509,6 +21974,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -20539,6 +22009,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -20569,6 +22044,11 @@
           <t>p__Actinobacteriota</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -20599,6 +22079,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -20629,6 +22114,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -20659,6 +22149,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -20689,6 +22184,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -20719,6 +22219,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -20749,6 +22254,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -20779,6 +22289,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -20809,6 +22324,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -20839,6 +22359,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -20869,6 +22394,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -20899,6 +22429,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -20929,6 +22464,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -20959,6 +22499,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -20989,6 +22534,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -21019,6 +22569,11 @@
           <t>p__Actinobacteriota</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -21049,6 +22604,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -21079,6 +22639,11 @@
           <t>p__Actinobacteriota</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -21109,6 +22674,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -21139,6 +22709,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -21169,6 +22744,11 @@
           <t>p__Actinobacteriota</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -21199,6 +22779,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -21229,6 +22814,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -21259,6 +22849,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -21289,6 +22884,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -21319,6 +22919,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -21349,6 +22954,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -21379,6 +22989,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -21409,6 +23024,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -21439,6 +23059,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -21469,6 +23094,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -21499,6 +23129,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -21529,6 +23164,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -21559,6 +23199,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -21589,6 +23234,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -21619,6 +23269,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -21649,6 +23304,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -21679,6 +23339,11 @@
           <t>p__Chloroflexota</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -21709,6 +23374,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -21739,6 +23409,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -21769,6 +23444,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -21799,6 +23479,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -21829,6 +23514,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -21859,6 +23549,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -21889,6 +23584,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -21919,6 +23619,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -21949,6 +23654,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -21979,6 +23689,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -22009,6 +23724,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -22039,6 +23759,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -22069,6 +23794,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -22099,6 +23829,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -22129,6 +23864,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -22159,6 +23899,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -22189,6 +23934,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -22219,6 +23969,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -22249,6 +24004,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -22279,6 +24039,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -22309,6 +24074,11 @@
           <t>p__Actinobacteriota</t>
         </is>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -22339,6 +24109,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -22369,6 +24144,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -22399,6 +24179,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -22429,6 +24214,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -22459,6 +24249,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -22489,6 +24284,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -22519,6 +24319,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -22549,6 +24354,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -22579,6 +24389,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -22609,6 +24424,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -22639,6 +24459,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -22669,6 +24494,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -22699,6 +24529,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -22729,6 +24564,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -22759,6 +24599,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -22789,6 +24634,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -22819,6 +24669,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -22849,6 +24704,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -22879,6 +24739,11 @@
           <t>p__Chloroflexota</t>
         </is>
       </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -22909,6 +24774,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -22939,6 +24809,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -22969,6 +24844,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -22999,6 +24879,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -23029,6 +24914,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -23059,6 +24949,11 @@
           <t>p__Actinobacteriota</t>
         </is>
       </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -23089,6 +24984,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -23119,6 +25019,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -23149,6 +25054,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -23179,6 +25089,11 @@
           <t>p__Actinobacteriota</t>
         </is>
       </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -23209,6 +25124,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -23239,6 +25159,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -23269,6 +25194,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -23299,6 +25229,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -23329,6 +25264,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -23359,6 +25299,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -23389,6 +25334,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -23419,6 +25369,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -23449,6 +25404,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -23479,6 +25439,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -23509,6 +25474,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -23539,6 +25509,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -23569,6 +25544,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -23599,6 +25579,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -23629,6 +25614,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -23659,6 +25649,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -23689,6 +25684,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -23719,6 +25719,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -23749,6 +25754,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -23779,6 +25789,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -23809,6 +25824,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -23839,6 +25859,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -23869,6 +25894,11 @@
           <t>p__Desulfobacterota</t>
         </is>
       </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -23899,6 +25929,11 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -23929,8 +25964,13 @@
           <t>p__Bacteroidota</t>
         </is>
       </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/outputs/d__Bacteria_include_p__Bacteroidota.xlsx
+++ b/outputs/d__Bacteria_include_p__Bacteroidota.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="9" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15900" windowWidth="28800" xWindow="0" yWindow="460"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" tabRatio="600" firstSheet="1" activeTab="9" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="g__Prevotella-t" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="g__Ruminococcus_E-t-p" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="f__Atopobiaceae-t" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="f__Bacteroidaceae-t" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="f__Bacteroidaceae-t-p" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="f__Atopobiaceae-t-p" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -85,21 +87,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3930,7 +3932,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -6021,7 +6023,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -6666,7 +6668,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -11145,7 +11147,6639 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I165"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>p__Cyanobacteria</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>RUG515</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0190524645999005</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9311224166604315</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03718438270081417</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.002742642629470235</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.00989809340938355</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9311224166604315</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>RUG212</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.01197051725512641</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9690134711430859</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.005417692275332179</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.007311252067675399</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.006287067258780295</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9690134711430859</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>RUG062</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.03083240899292796</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8912077981827555</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05297680381355993</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.005607536348784203</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01937545266197253</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8912077981827555</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>RUG419</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01139503149371492</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9770444173542919</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.001814119655648328</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0007677532769649255</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.008978678219379995</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9770444173542919</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>hRUG908</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.01214594069418818</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9736004153858395</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00500405030787949</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.006311205512759523</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.002938388099333267</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9736004153858395</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>RUG459</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0152486941629331</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9011777067262086</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06648091281824617</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.002054765749008437</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.01503792054360362</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9011777067262086</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>RUG577</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.01035025624140198</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9731746402164424</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.006977620807064981</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.00223912620554087</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.007258356529549757</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9731746402164424</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>RUG112</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0224665036646107</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9393286784338232</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.01517044301306433</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.008114832621307327</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01491954226719458</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9393286784338232</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>RUG431</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.01221339578132074</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9643545155620246</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01328819521608562</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.005654623979082092</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.004489269461486879</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9643545155620246</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>RUG446</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.001124917097073429</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9972261333072858</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0004338816727158538</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0009682891562748096</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0002467787666504921</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9972261333072858</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>RUG318</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.01281316799315544</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9645559481155734</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01155898567829954</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.00223860461867342</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.008833293594298339</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9645559481155734</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>RUG483</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.00428655832338938</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9885459780250836</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.001934166005325017</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.002913729018556812</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.002319568627645146</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9885459780250836</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>RUG838</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1081384590898458</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7132445815285139</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1221640142037162</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.02768203544309346</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.02877090973483057</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.7132445815285139</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>hRUG906</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.01185802931723513</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9838830285680132</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.001512815905916627</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0007630813525379687</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.001983044856297249</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9838830285680132</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>RUG339</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.04543651382188586</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8604461338034101</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.06127034517064275</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0135917046332199</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.01925530257084151</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8604461338034101</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>RUG500</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.003323693811136407</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9784408573120463</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.01299143022089413</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.001380314304655998</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.003863704351267101</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9784408573120463</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>RUG273</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.02180372126370058</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9274980698737748</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.02611390436255307</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.008752379207473708</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.01583192529249793</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9274980698737748</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>RUG307</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.06463394468219268</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8374466053583829</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.06214786629036811</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.02269558472873466</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.01307599894032151</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.8374466053583829</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>RUG397</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.03413546698536546</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9166619140396963</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.02425836836808641</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.006109581908185678</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.01883466869866612</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9166619140396963</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>RUG569</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.02335099203463396</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9420110461323348</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.02292417012860109</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.006171883569373255</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.005541908135056995</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9420110461323348</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>RUG474</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.003682558369587599</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.992637033512325</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.001841918400571488</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0008213308904305754</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.001017158827085314</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.992637033512325</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>hRUG897</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.03964436818298139</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8974477212308228</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.02998718878749391</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.005867781473199446</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.02705294032550239</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8974477212308228</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>RUG116</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.02880481760559974</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8283540678879374</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.07788262517120184</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.01983918067169256</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0451193086635685</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.8283540678879374</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>RUG367</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.08209891058343642</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8748274661513497</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.03140669927915987</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.003060648944462093</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.008606275041592008</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.8748274661513497</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>RUG144</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.01850093388617198</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9587829620933029</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.01414391144005089</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.00419928165447832</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.004372910925995866</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9587829620933029</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>RUG423</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0251924769603584</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.942567679757467</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.01089597445590094</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.002712292644023626</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.01863157618224999</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.942567679757467</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>RUG476</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1012232207732225</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.6980909742530229</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.05193116867140437</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.109802281876088</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.03895235442626215</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.6980909742530229</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>hRUG858</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0267616165224018</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9527382297425702</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.006210629392167712</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.003842949228129302</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.01044657511473094</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.9527382297425702</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>RUG168</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.008686575641048237</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9627232304208322</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.02129299717074764</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.003816113466242744</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.003481083301129231</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.9627232304208322</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>RUG242</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0154267417401373</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.8646988833365761</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.08446173730016591</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.006646450290060064</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.02876618733306071</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.8646988833365761</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>RUG586</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.07602487657165005</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.7934337912246031</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.05234238797922954</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.02067517879698636</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.05752376542753087</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.7934337912246031</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>RUG106</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.007626980814331235</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9856246229301061</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.002737198067049406</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.001967800322006201</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.002043397866507022</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.9856246229301061</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>RUG765</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0398814372750886</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.8812731336843239</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.05575162095575593</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.004561121652997941</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.01853268643183354</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.8812731336843239</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>RUG259</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.01468517690169641</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9636242025145403</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.01149531564053103</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.004101660211433776</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.006093644731798451</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.9636242025145403</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>RUG488</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.01008917069456417</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9685584465218123</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.01139574294049967</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.006271294288634493</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.003685345554489429</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9685584465218123</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>RUG085</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.03902590652743693</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.8936094789593153</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.03413505977553883</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.009772229958137271</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0234573247795715</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.8936094789593153</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>RUG647</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.01978030335379184</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.8549245172052061</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.07258587566148191</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0262810821363441</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.02642822164317605</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.8549245172052061</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>RUG733</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.004339076683888761</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.9873404461724541</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.005363195499362681</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0006336417002098573</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.002323639944084512</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.9873404461724541</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>RUG064</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.1245315034741818</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.67625256885443</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.1139907431345522</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.02717439386285801</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.058050790673978</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.67625256885443</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>RUG598</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.03472776442391206</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.9282492703548322</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.01655458242130635</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.007324261365246235</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0131441214347033</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.9282492703548322</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>RUG022</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.0800715746341958</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.6300567014630948</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.1947764123724106</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.04524017480995519</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.04985513672034356</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.6300567014630948</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>RUG849</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.01572831259782126</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.948226764042625</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.02610307779396177</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.004180512339415408</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.005761333226176639</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.948226764042625</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>RUG216</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.002394098388135801</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9963437602409101</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.0006004685762054804</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0002447363969260381</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.000416936397822411</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.9963437602409101</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>hRUG893</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.02332922451752549</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.8789821775021499</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.05593925512826932</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.01954214472569353</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.02220719812636177</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.8789821775021499</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>RUG200</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.02363264020076196</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.9655596248716636</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.005718024789032092</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.003302179651025763</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.001787530487516579</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.9655596248716636</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>RUG309</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.005240747034288946</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.9695045646078148</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.01369753532513758</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.001631832105150619</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.009925320927607903</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.9695045646078148</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>RUG550</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.05539943357314859</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.8696486569988807</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.03351456711928631</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.01318797640848058</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.02824936590020388</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.8696486569988807</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>RUG782</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.01428973532865467</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.9629836550167857</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.009747530171488833</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.00393208260443935</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.009046996878631525</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.9629836550167857</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>RUG003</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.006630158170887406</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.9460110829140964</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.01515358724832016</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.004241580421957952</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.02796359124473819</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.9460110829140964</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>RUG535</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.03509274607127474</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.8640308644106151</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.06217872211906397</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.02279042278740904</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.01590724461163721</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.8640308644106151</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>RUG315</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.01304295706644471</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.9805174524776306</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.003398849060390433</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.00138225946173128</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.00165848193380286</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.9805174524776306</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>RUG108</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.09371757558895434</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.8341815562533547</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.04260051336890117</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.00633619896964488</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.02316415581914486</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.8341815562533547</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>RUG541</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.008643079833700995</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.9612186418649215</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.01681916613643631</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.006600814744317439</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.006718297420623788</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.9612186418649215</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>RUG461</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.07605638039172589</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.7933018565298101</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.08636901061469579</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.01741462868489939</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.02685812377886898</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.7933018565298101</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>RUG546</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.02882660162713211</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.9505285383064463</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.01288860563323309</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.002420678357716588</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.005335576075471782</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.9505285383064463</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>RUG195</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.06681600608886228</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.8229735728391525</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.05738678670983655</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.01819534954880922</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.03462828481333948</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.8229735728391525</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>RUG660</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.009261473127188129</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.9604490213749287</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.01464340483817042</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.008257475972909207</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.007388624686803644</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.9604490213749287</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>RUG280</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.0124181984476362</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.9625140224057174</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.01077232712062307</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.002513193858695028</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.01178225816732819</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.9625140224057174</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>RUG614</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.004223191704610104</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.9822340442029224</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.007440931634566575</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.004248000548192406</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.001853831909708454</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.9822340442029224</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>RUG742</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.01748911414271671</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.9583162133364587</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.01467162906235464</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.003943297336482045</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.005579746121988073</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.9583162133364587</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>RUG457</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.01679763022302472</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.9519928167334244</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.01739872393803378</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.003654101559326992</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.01015672754618999</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.9519928167334244</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>RUG036</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.09000788912562611</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.8601727536837162</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.03348943299372696</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.005681402437060763</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.01064852175986996</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.8601727536837162</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>RUG046</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.01024365436074909</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.9594333489867994</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.01048035856532713</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.009761648715770958</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0100809893713534</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.9594333489867994</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>RUG445</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.00442012366445229</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.985160285965287</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.007733297831744391</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0009300062835983804</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.001756286254917826</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.985160285965287</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>RUG435</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.02621252861887882</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.9069987261857045</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.03942379767702402</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0134014723698146</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.01396347514857815</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.9069987261857045</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>RUG828</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.02160706713790419</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.8929641410768147</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.06741578994625975</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.008678891190540626</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.009334110648480793</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.8929641410768147</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>RUG172</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.0750161528394549</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.8268705861160722</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.04992004958776965</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.03077102294731742</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.01742218850938581</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.8268705861160722</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>RUG589</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.03085012272443773</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.8927666523315222</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.04195315097567439</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0130404014257065</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.02138967254265921</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.8927666523315222</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>RUG169</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.02927948311480507</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.9068951692776342</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.0312295631122336</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0122490547364929</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.02034672975883426</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.9068951692776342</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>RUG030</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.001653186250474336</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.9958915415990608</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.001136078045438272</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0005173555026342404</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0008018386023923513</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.9958915415990608</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>RUG301</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.02229986821989705</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.8406698781146468</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.04017647169014159</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.008723155286192438</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.08813062668912228</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.8406698781146468</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>hRUG878</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.00883719532367651</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.9807297662198075</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.001486163306119559</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.001112462282688798</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.007834412867707521</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.9807297662198075</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>RUG037</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.0135157171420927</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.89670252210727</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.05889835199929135</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.01569311828153458</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.01519029046981143</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.89670252210727</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>RUG711</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.01685754697209857</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.9356832240639164</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.02754764014884095</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.002181452653116587</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.01773013616202751</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.9356832240639164</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>RUG788</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.01420826263585742</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.9623952491915833</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.01658448850602352</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.002642634804653653</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.004169364861882063</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.9623952491915833</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>RUG210</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.06180009595294448</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.9129300907941872</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.01468743078319829</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.005649531217136653</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.004932851252533369</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.9129300907941872</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>RUG176</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.05824412549508505</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.8901926418448162</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.03179640249363979</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.01007148393488745</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.00969534623157157</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.8901926418448162</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>RUG047</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.01094812607541683</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.937250481065681</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.02765522826458117</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.008837825927560633</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.01530833866676054</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.937250481065681</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>RUG310</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.0227912846772298</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.9509488130225687</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.01893097608657691</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.002091191739666364</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.005237734473958</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.9509488130225687</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>RUG405</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.009379975274819232</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.9589947084767418</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.02391258596554085</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.00328242870792805</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.004430301574970053</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.9589947084767418</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>hRUG883</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.007689328138418737</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.8946768909595746</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.01996792986770339</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.02184712655137627</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.05581872448292719</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.8946768909595746</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>hRUG905</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.03328683665187854</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.9185813674822823</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.01616086423980012</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.006176130273978324</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.02579480135206081</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.9185813674822823</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>RUG192</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.03625255840115778</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.9417834315073882</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.009837280246854686</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.003861145472353817</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.008265584372245635</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.9417834315073882</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>RUG697</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.001062984120958963</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.9972378086533044</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.0008258763517074328</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0002577799917498981</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0006155508822795452</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.9972378086533044</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>RUG562</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.001163852490221914</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.9982384742203103</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.0002767026188769478</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.000223583740717601</v>
+      </c>
+      <c r="F86" t="n">
+        <v>9.73869298732269e-05</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.9982384742203103</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>RUG292</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.03837360664703658</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.9177774075449301</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.01262453543132303</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.01360588122951011</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.01761856914720021</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.9177774075449301</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>RUG376</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.04858963987423627</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.8417480243366432</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.02155762597369524</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.03056468251766339</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.05754002729776189</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.8417480243366432</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>RUG070</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.1157945090884723</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.7477261202636918</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.07499361211391302</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.03063195178203828</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.03085380675188474</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.7477261202636918</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>RUG473</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.0335605412755574</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.8996477465140221</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.04494298084815019</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.007458530480114009</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.01439020088215628</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.8996477465140221</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>RUG302</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.02772153469805702</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.9047230985687656</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.03006413201805862</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.008705604914710978</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.02878562980040774</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.9047230985687656</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>RUG233</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.003282175399993515</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.9949186433387576</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.0008167362687677761</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.0004043423055079035</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.0005781026869731264</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.9949186433387576</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>RUG232</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.0200810899285382</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.949301893127259</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.01911303163799992</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.005938803557676156</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.005565181748526833</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.949301893127259</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>RUG207</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.02350159700199321</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.8688070295279785</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.07034836471233831</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.006575042731172539</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.03076796602651735</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.8688070295279785</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>RUG143</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.04903530714720845</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.7622536225803419</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.1088127300254005</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.01585563318944112</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.06404270705760805</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.7622536225803419</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>RUG219</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.04521228868668167</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.8893476754569926</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.03244749521839015</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.00907579281084156</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.02391674782709409</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.8893476754569926</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>RUG139</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.08920371724611691</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.8397118354596385</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.04144528252615211</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.01021354172438234</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.01942562304371029</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.8397118354596385</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>RUG086</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.01213642635135889</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.9129586469267271</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.04321666652172804</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.02344069384795366</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.008247566352232318</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.9129586469267271</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>RUG582</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.001906368075269667</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.9972020763818132</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.0004369879113067166</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.0001447673531799589</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.0003098002784305967</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.9972020763818132</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>RUG418</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.03420653101177931</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.9062948294074599</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.03381140319640675</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.008642698015481901</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.01704453836887211</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.9062948294074599</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>RUG685</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.01192861792928702</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.9340922894532623</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.03754534740087498</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.004389889524715541</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.01204385569186017</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.9340922894532623</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>RUG759</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.007701027857286622</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.9846190900398262</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.001768506426154806</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.001076310897544349</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.00483506477918806</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.9846190900398262</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>RUG691</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.01325522608913336</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.9366288994716997</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.01650010037424863</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.009243593360694302</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.02437218070422421</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.9366288994716997</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>RUG383</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.09175481819957475</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.6819733220191987</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.1531176486775787</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.04233318274649042</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.03082102835715761</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.6819733220191987</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>RUG056</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.009316509217456168</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.987234948233115</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.001104848677614833</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.0008304271415411184</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.001513266730272893</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.987234948233115</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>RUG124</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.01075787124535453</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.9667393016853809</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.01160298849122509</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.0051986247844232</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.005701213793616266</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.9667393016853809</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>RUG160</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.06594466759437682</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.7848315123272082</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.07848170597480662</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.01847939928079851</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.05226271482280989</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.7848315123272082</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>RUG624</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.00845278462843224</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.9710584007804408</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.01332600947639566</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.003965024081948643</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.003197781032782547</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.9710584007804408</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>RUG209</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.04183208947278783</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.8555001920413448</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.04345416726085396</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.04078144780259758</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.01843210342241575</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.8555001920413448</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>RUG812</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.02081970900288842</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.8562832573825208</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.02221089182346906</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.06042505870741729</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.04026108308370481</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.8562832573825208</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>RUG602</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.003565749407956393</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.9922176573519131</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.002713610215979502</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.0003640338466485663</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.001138949177502356</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.9922176573519131</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>RUG751</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.08850632863471755</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.8321215949944303</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.05722461439102611</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.009676537442976902</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.01247092453684923</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.8321215949944303</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>RUG101</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.0961532854028526</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.8355625427849913</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.0265191831044983</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.02259667055414912</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.01916831815350883</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.8355625427849913</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>RUG693</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.05813704605969786</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.7971950667916837</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.08786057087899891</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.0222059702628432</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.03460134600677631</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.7971950667916837</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>RUG749</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.0126483153165408</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.9716471217490742</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.009731847573927839</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.002521687117381514</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.003451028243075648</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.9716471217490742</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>RUG107</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.00629997073047645</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.9920170321420879</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.0007788260642252193</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.0002969001016328768</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.0006072709615773218</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.9920170321420879</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>RUG063</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.02546137271363942</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.9281228897565169</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.03307313087363559</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.004625071837724046</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.008717534818484057</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.9281228897565169</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>RUG178</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.002418345132930311</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.996486518404108</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.0005687693476949667</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.0001891082579099974</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.0003372588573567574</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.996486518404108</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>RUG414</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.001874670932822498</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.9964704025077368</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.0009695635661807039</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.0002453919599937067</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0004399710332664262</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.9964704025077368</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>RUG058</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.05722286385647567</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.898209224138536</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.02476995028006245</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.001702142581997642</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.01809581914292824</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.898209224138536</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>RUG771</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.02051486901401483</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.9392582549549512</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.02807939067972576</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.005046460057691529</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.007101025293616753</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.9392582549549512</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>RUG837</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.01485208355568733</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.9688527800490284</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.01034301881425061</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.00217567559626432</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.003776441984769339</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.9688527800490284</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>RUG657</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.0460566129663974</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.8632408707548236</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.03505982677354933</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.01983870367584237</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.03580398582938733</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.8632408707548236</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>RUG174</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.1537197198300948</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.5619477010958704</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.1197886122355476</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.02929873055167181</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.1352452362868155</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.5619477010958704</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>RUG355</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.01950994467148364</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.8550417401981473</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.09165326104158512</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.01582763724368526</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.0179674168450988</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.8550417401981473</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>RUG827</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.01697532051466711</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.9800722281684285</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.0008313229602916952</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.0006952095000220649</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.001425918856590622</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.9800722281684285</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>RUG795</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.09368635613952535</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.7381277324273046</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.08774226788459429</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.04474429793829373</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.03569934561028192</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.7381277324273046</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>RUG843</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.009530678391581745</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.9754506108365559</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.004668163972404215</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.006679386836077667</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.003671159963380468</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.9754506108365559</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>RUG689</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.06873080497712969</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.8224510828950007</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.07733535906128949</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.01546450025641846</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.0160182528101618</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.8224510828950007</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>RUG126</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.1721209529705673</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.4734078127006183</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.25415272613755</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.045567134802477</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.05475137338878747</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.4734078127006183</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>RUG451</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.009441715342719542</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.9805253906742541</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.003743824063389369</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.003190256167556592</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.00309881375208029</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.9805253906742541</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>RUG536</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.02047791032765327</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.9229901775822273</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.03311892029977729</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.00419092402702631</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.01922206776331581</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.9229901775822273</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>RUG606</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.03962901616608228</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.9056996855865963</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.0417163123886058</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.003607002168137881</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.009347983690577735</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.9056996855865963</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>RUG766</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.1466683100969881</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.6950191166545131</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.1046739964718583</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.01227513174564911</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.04136344503099141</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.6950191166545131</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>RUG059</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.04894448682303881</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.8586584723766973</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.04899258394263069</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.004893652687777585</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.03851080416985549</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.8586584723766973</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>RUG753</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.01549601211177378</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.9622548322189171</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.009128679571486834</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.004636381424392285</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.008484094673430078</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.9622548322189171</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>RUG744</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.03017256387961091</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.9305643180521781</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.01861526799389093</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.01337913950480605</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.007268710569513858</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.9305643180521781</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>RUG450</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.06567317442181567</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.7950958447158575</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.04995092254695498</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.03062366447610286</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.05865639383926905</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.7950958447158575</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>RUG071</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.02517804397138207</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.8866308409984882</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.03930359491161051</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.009978718030727732</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.03890880208779158</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.8866308409984882</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>RUG295</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.1736664696501234</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.485157864959064</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.1797552462885138</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.1084038081280419</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.05301661097425685</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.485157864959064</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>RUG620</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.0123197645296408</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.9441766857408368</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.03284214331004749</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.003733165302150397</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.006928241117324541</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.9441766857408368</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>RUG785</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.03752200192652928</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.8880075919407279</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.04284872917524115</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.01985558240811405</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.01176609454938753</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.8880075919407279</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>hRUG879</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.1048634709611797</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.316672830682182</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.1996378939488193</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.06922059239349072</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.3096052120143282</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.316672830682182</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>RUG249</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.005843415522337783</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.9843853117806354</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.005359742706968842</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.0008415134526030617</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.003570016537454973</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.9843853117806354</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>RUG668</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.05425724147541734</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.8759857535834218</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.04428025899283441</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.009599081801686313</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.01587766414664002</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.8759857535834218</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>RUG430</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.005798901521184197</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.9858057798158123</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.005441732746426403</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.001004273574893491</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.001949312341683802</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.9858057798158123</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>RUG424</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.008001905095684561</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.9792056292288952</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.005590318945170957</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.003649229925012207</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.003552916805236966</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.9792056292288952</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>RUG224</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.04699009042204563</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.8318968153213765</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.0644603097431246</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.02060916916990456</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.03604361534354884</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.8318968153213765</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>RUG443</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.0162292975144334</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.9478677541684855</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.02141390883699326</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.01022098454236616</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.004268054937721825</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.9478677541684855</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>RUG136</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.007670827051679411</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.9761191804386867</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.004898288525033248</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.002133480574108896</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.009178223410491491</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.9761191804386867</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>RUG599</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.05335475867660625</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.8620990291352654</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.04808832879660174</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.0198390534735315</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.01661882991799508</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.8620990291352654</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>hRUG913</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.02833036841457609</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.9113406441955816</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.0367945394997136</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.004072801059386515</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.019461646830742</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.9113406441955816</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>RUG204</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.01168175721456759</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.9498882723861126</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.02658005770015083</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.005645454828170349</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.006204457870998815</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.9498882723861126</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>RUG786</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.04437352787528595</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.8422063991935324</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.06874163158018133</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.02380485238654787</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.02087358896445251</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.8422063991935324</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>RUG533</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.01446968148925899</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.9330062698950977</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.02419765581249215</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.01179788648481129</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.01652850631834001</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.9330062698950977</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>RUG413</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.001388237263073556</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.9972233196076739</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.000487070386966402</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.0006031836363919505</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.000298189105894256</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.9972233196076739</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>RUG839</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.04932060763977411</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.9210587949673565</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.01459156010175855</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.008002113068017298</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.007026924223093427</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.9210587949673565</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>RUG403</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.05566424812815708</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.8586367716031958</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.07206579839756329</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.004146302897472621</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.009486878973611224</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.8586367716031958</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>RUG137</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.009456564726879743</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.9798980999600778</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.003664360876554335</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.002768314238186329</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.004212660198301565</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.9798980999600778</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>RUG504</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.1119499522262873</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.7656707109467801</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.08625985738277873</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.01373616652851711</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.02238331291563678</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.7656707109467801</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>RUG571</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.008369931379901966</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.9840246131416668</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.003478576669934715</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.002365836747219972</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.001761042061276558</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.9840246131416668</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>RUG317</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.009491373113962013</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.9688828157714294</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.01383118245398344</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.002702174499406692</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.005092454161218287</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.9688828157714294</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>RUG815</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.1046985053045836</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.8424117822613701</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.02926630995627617</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.01297701857318321</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.01064638390458694</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.8424117822613701</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>RUG069</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0.02976922661489357</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.9225157289271396</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.0283071483117733</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.005957557405048727</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.01345033874114486</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.9225157289271396</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>RUG073</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.007712394385471144</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.9818535741897588</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.006448266505981356</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.001610771746216046</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.002374993172572563</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.9818535741897588</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>p__Chloroflexota</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>p__Cyanobacteria</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>p__Desulfobacterota</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>RUG440</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8334457821767164</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.05573376636681247</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06266755545869618</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.03090359739755459</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.01724929860022044</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8334457821767164</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>hRUG890</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4634841267430089</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2001287201523011</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1251299739406154</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.02730843028484739</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1839487488792272</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.4634841267430089</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>RUG836</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8393007580916908</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01966153594127226</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0319716124995334</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.04105345722336838</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.06801263624413505</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8393007580916908</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>RUG025</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8696711359125644</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01042773399941761</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06047289331903095</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.002867047348767585</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.05656118942021954</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8696711359125644</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>RUG729</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9870471899643075</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.002675129593485451</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.004450709023827172</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0005563734762955779</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.005270597942084287</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9870471899643075</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>RUG768</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9993217394515214</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0001909414364265479</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0002903678269046663</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.902060014807929e-06</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0001950492251327599</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.9993217394515214</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>RUG721</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9855063045581932</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.002510115058386113</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.008899792207926513</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0004704917326129006</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.002613296442881173</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9855063045581932</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>RUG161</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3599291962291409</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2262507887551498</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2624540084991235</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.04923190483710973</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1021341016794763</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.3599291962291409</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>RUG077</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6606425211100427</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1388638574093838</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.06934852010247131</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.01069810184079028</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1204469995373119</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.6606425211100427</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>RUG725</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.958712739687732</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.00724684960011117</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01375334162392213</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.004325961325321763</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01596110776291285</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.958712739687732</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>RUG162</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4805167937295933</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1862765763015797</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.103994730404285</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.06755012136171989</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1616617782028222</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.4805167937295933</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>RUG654</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9370852543158074</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.007132573820174707</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.03511498831012273</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.001292712149207548</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.01937447140468762</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9370852543158074</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>RUG002</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8323578047201967</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1171968091234734</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.03547570300858122</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.002563703466490267</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.01240597968125836</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.8323578047201967</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>RUG778</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8965914020723251</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.02393482400921878</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03209055828796957</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.008602826988495444</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.03878038864199097</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.8965914020723251</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>RUG032</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9718105163231744</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01360354876845496</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.006249643108168198</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.002101783225920224</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.006234508574282168</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9718105163231744</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>RUG001</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9641511751630422</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.004969863452823714</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.01775634061118221</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0003544383380452534</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.01276818243490661</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9641511751630422</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>hRUG864</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.2856382923975194</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3327400006823568</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.1406221642037041</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.04027794028489462</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2007216024315249</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.3327400006823568</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>p__Bacteroidota</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>RUG078</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.90385706055944</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.05618549106689944</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0174053281325987</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0002427465008282245</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.02230937374023362</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.90385706055944</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>RUG004</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.971451986080861</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.01781826566407809</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.003120555052862803</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.001276496427948899</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.006332696774249214</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.971451986080861</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>RUG014</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6864116920981832</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.08104968175753692</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.05834269349177042</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.03362439080305571</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1405715418494536</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.6864116920981832</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>RUG804</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9367073867473916</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.02344604422855521</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.01575851131445406</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.001512053248414998</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.02257600446118416</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9367073867473916</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>hRUG891</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8850615836957326</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.03001599885166318</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.03619327492634207</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.002197856890004888</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.04653128563625716</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8850615836957326</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>p__Actinobacteriota</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -12600,7 +19234,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -13596,7 +20230,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -17184,7 +23818,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -18801,7 +25435,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -23307,7 +29941,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -25188,7 +31822,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -26474,7 +33108,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -31120,6 +37754,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>